--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>8.223245666666665</v>
+      </c>
+      <c r="H2">
+        <v>24.669737</v>
+      </c>
+      <c r="I2">
+        <v>0.003010099901484358</v>
+      </c>
+      <c r="J2">
+        <v>0.003010099901484359</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>2.335690666666667</v>
-      </c>
-      <c r="H2">
-        <v>7.007072</v>
-      </c>
-      <c r="I2">
-        <v>0.0008591106367287776</v>
-      </c>
-      <c r="J2">
-        <v>0.0008591106367287777</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N2">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O2">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P2">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q2">
-        <v>102.8840448197369</v>
+        <v>11.65378091874022</v>
       </c>
       <c r="R2">
-        <v>925.956403377632</v>
+        <v>104.884028268662</v>
       </c>
       <c r="S2">
-        <v>0.0003123848753806349</v>
+        <v>7.19091723489153E-05</v>
       </c>
       <c r="T2">
-        <v>0.000312384875380635</v>
+        <v>7.190917234891532E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H3">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I3">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J3">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.678962</v>
       </c>
       <c r="O3">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P3">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q3">
-        <v>5.199996402140445</v>
+        <v>18.30758177477711</v>
       </c>
       <c r="R3">
-        <v>46.799967619264</v>
+        <v>164.768235972994</v>
       </c>
       <c r="S3">
-        <v>1.578865052310593E-05</v>
+        <v>0.0001129661748675313</v>
       </c>
       <c r="T3">
-        <v>1.578865052310593E-05</v>
+        <v>0.0001129661748675314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H4">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I4">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J4">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N4">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O4">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P4">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q4">
-        <v>174.8642838102365</v>
+        <v>457.8629808437834</v>
       </c>
       <c r="R4">
-        <v>1573.778554292128</v>
+        <v>4120.766827594051</v>
       </c>
       <c r="S4">
-        <v>0.0005309371108250366</v>
+        <v>0.002825224554267911</v>
       </c>
       <c r="T4">
-        <v>0.0005309371108250369</v>
+        <v>0.002825224554267912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>8120.804687</v>
       </c>
       <c r="I5">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J5">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N5">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O5">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P5">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q5">
-        <v>119236.8557636681</v>
+        <v>3836.201363078041</v>
       </c>
       <c r="R5">
-        <v>1073131.701873013</v>
+        <v>34525.81226770236</v>
       </c>
       <c r="S5">
-        <v>0.3620366053237317</v>
+        <v>0.02367112157901652</v>
       </c>
       <c r="T5">
-        <v>0.3620366053237317</v>
+        <v>0.02367112157901653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I6">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J6">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>6.678962</v>
       </c>
       <c r="O6">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P6">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q6">
         <v>6026.505101543878</v>
@@ -821,10 +821,10 @@
         <v>54238.54591389489</v>
       </c>
       <c r="S6">
-        <v>0.01829816322273321</v>
+        <v>0.03718630005405855</v>
       </c>
       <c r="T6">
-        <v>0.01829816322273321</v>
+        <v>0.03718630005405856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I7">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J7">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N7">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O7">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P7">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q7">
-        <v>202657.9283836482</v>
+        <v>150719.7195024815</v>
       </c>
       <c r="R7">
-        <v>1823921.355452834</v>
+        <v>1356477.475522333</v>
       </c>
       <c r="S7">
-        <v>0.6153264270854069</v>
+        <v>0.9300097849493225</v>
       </c>
       <c r="T7">
-        <v>0.6153264270854071</v>
+        <v>0.9300097849493226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H8">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I8">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J8">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N8">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O8">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P8">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q8">
-        <v>368.8998070932216</v>
+        <v>20.04368800208578</v>
       </c>
       <c r="R8">
-        <v>3320.098263838994</v>
+        <v>180.393192018772</v>
       </c>
       <c r="S8">
-        <v>0.00112008349271907</v>
+        <v>0.0001236787464171482</v>
       </c>
       <c r="T8">
-        <v>0.00112008349271907</v>
+        <v>0.0001236787464171482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H9">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I9">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J9">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>6.678962</v>
       </c>
       <c r="O9">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P9">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q9">
-        <v>18.64504523510978</v>
+        <v>31.48776004328489</v>
       </c>
       <c r="R9">
-        <v>167.805407115988</v>
+        <v>283.389840389564</v>
       </c>
       <c r="S9">
-        <v>5.66115974779282E-05</v>
+        <v>0.0001942939188253274</v>
       </c>
       <c r="T9">
-        <v>5.66115974779282E-05</v>
+        <v>0.0001942939188253275</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H10">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I10">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J10">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N10">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O10">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P10">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q10">
-        <v>626.9912956679918</v>
+        <v>787.4922996861897</v>
       </c>
       <c r="R10">
-        <v>5642.921661011927</v>
+        <v>7087.430697175707</v>
       </c>
       <c r="S10">
-        <v>0.001903721788010563</v>
+        <v>0.004859188609811225</v>
       </c>
       <c r="T10">
-        <v>0.001903721788010563</v>
+        <v>0.004859188609811226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H11">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I11">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J11">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N11">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O11">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P11">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q11">
-        <v>47.81598073988879</v>
+        <v>3.660684345903334</v>
       </c>
       <c r="R11">
-        <v>430.3438266589991</v>
+        <v>32.94615911313</v>
       </c>
       <c r="S11">
-        <v>0.0001451827560901604</v>
+        <v>2.258810109612007E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001451827560901604</v>
+        <v>2.258810109612007E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H12">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I12">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J12">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>6.678962</v>
       </c>
       <c r="O12">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P12">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q12">
-        <v>2.416729710110889</v>
+        <v>5.750775519256667</v>
       </c>
       <c r="R12">
-        <v>21.750567390998</v>
+        <v>51.75697967331</v>
       </c>
       <c r="S12">
-        <v>7.337870615841507E-06</v>
+        <v>3.548492208989061E-05</v>
       </c>
       <c r="T12">
-        <v>7.337870615841508E-06</v>
+        <v>3.548492208989062E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H13">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I13">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J13">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N13">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O13">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P13">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q13">
-        <v>81.26923121475789</v>
+        <v>143.8238678271517</v>
       </c>
       <c r="R13">
-        <v>731.4230809328212</v>
+        <v>1294.414810444365</v>
       </c>
       <c r="S13">
-        <v>0.0002467562264856829</v>
+        <v>0.0008874592178783011</v>
       </c>
       <c r="T13">
-        <v>0.000246756226485683</v>
+        <v>0.0008874592178783012</v>
       </c>
     </row>
   </sheetData>
